--- a/Hydroponics Shield/Hydroponics Shield Rev2/Hydroponics_Shield_Rev2_Gerbers+BOM/hydroponics_shield_rev2.xlsx
+++ b/Hydroponics Shield/Hydroponics Shield Rev2/Hydroponics_Shield_Rev2_Gerbers+BOM/hydroponics_shield_rev2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="hydroponics_shield_rev2" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="140">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -288,7 +288,7 @@
     <t xml:space="preserve">10.0k</t>
   </si>
   <si>
-    <t xml:space="preserve">RR1220P-103-D</t>
+    <t xml:space="preserve">RR1220P-104-D</t>
   </si>
   <si>
     <t xml:space="preserve">Resistors_SMD:R_0805_HandSoldering</t>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t xml:space="preserve">Crystals:Crystal_Round_Horizontal_2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatteryHolder</t>
   </si>
   <si>
     <t xml:space="preserve">BOM made with KICAD_BOM_WIZARD (https://github.com/HashDefineElectronics/KiCad_BOM_Wizard.git)</t>
@@ -447,6 +456,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -564,94 +574,166 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.49489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.4540816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.5612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8316326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1071428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="2.12244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="78.5663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.88775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>85</v>
       </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
       <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>32</v>
       </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -2213,14 +2295,34 @@
         <v>32</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
